--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-526942.2997272693</v>
+        <v>-489342.0808929138</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16765245.16155729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9277766.847033639</v>
+        <v>9302717.609249182</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>152.5488657422146</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>23.29641159110698</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>135.4310977608185</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>138.7301394456551</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.0387179169005</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,13 +902,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>32.36127543482664</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>91.09401393687548</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>282.5577466859961</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>347.7366734628711</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>63.22056834473219</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1370,13 +1370,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>388.5226620680205</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>343.3182662158609</v>
       </c>
     </row>
     <row r="12">
@@ -1546,37 +1546,37 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>18.05677735225723</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.3431845617047</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170515</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561549</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>48.25041423584356</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>144.493775385548</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170514</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>22.56919457453866</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,10 +3007,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>187.5234134555186</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225774</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3569,7 +3569,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245954</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432503</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934495</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245954</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,16 +3907,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934776</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934469</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283.7392223402076</v>
+        <v>1266.922935220282</v>
       </c>
       <c r="C2" t="n">
-        <v>249.6371535640349</v>
+        <v>1232.820866444109</v>
       </c>
       <c r="D2" t="n">
-        <v>217.7677727788835</v>
+        <v>1200.951485658958</v>
       </c>
       <c r="E2" t="n">
-        <v>188.0334319775828</v>
+        <v>767.1767408172527</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>743.3497152668646</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.9518838901284</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.82172933334469</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.4049399604847</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134026</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424401</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424401</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424401</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1136.170759424401</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.083015301585</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312583</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271178</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024235</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2596.715269144329</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>2376.648042017368</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>2117.425739334384</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>2117.425739334384</v>
       </c>
       <c r="W2" t="n">
-        <v>729.3865718653431</v>
+        <v>1712.570284745417</v>
       </c>
       <c r="X2" t="n">
-        <v>310.2441084446538</v>
+        <v>1293.427821324728</v>
       </c>
       <c r="Y2" t="n">
-        <v>305.9983887847113</v>
+        <v>1289.182101664785</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517775</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>452.1202237884198</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.029934934973</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>262.9095202619267</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>179.5256818780883</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>94.14059214427223</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.4049399604847</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094229</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871546</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1051.538070098153</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218278</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134399</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.3663652523198</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315406</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.6032097962661</v>
+        <v>1042.803151347041</v>
       </c>
       <c r="C4" t="n">
-        <v>741.6032097962661</v>
+        <v>870.2414398302664</v>
       </c>
       <c r="D4" t="n">
-        <v>741.6032097962661</v>
+        <v>704.3634470317891</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>534.6054432825263</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>357.8983892442825</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>192.3071142701102</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>52.4049399604847</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.4049399604847</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>138.9846251251745</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>413.7430796963101</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>831.9529614642712</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1291.436828645184</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1733.695631802829</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2153.36488102861</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2500.871774998952</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024235</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2598.829176729607</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2439.587808027603</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2439.587808027603</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>2161.154807280709</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>1874.199299151139</v>
       </c>
       <c r="W4" t="n">
-        <v>741.6032097962661</v>
+        <v>1602.172894737431</v>
       </c>
       <c r="X4" t="n">
-        <v>741.6032097962661</v>
+        <v>1462.04144075192</v>
       </c>
       <c r="Y4" t="n">
-        <v>741.6032097962661</v>
+        <v>1234.621770066029</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>557.9336779278854</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C5" t="n">
-        <v>523.8316091517128</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D5" t="n">
-        <v>491.9622283665614</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="V5" t="n">
-        <v>1114.499252887282</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W5" t="n">
-        <v>709.6437982983157</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X5" t="n">
-        <v>694.5417389180304</v>
+        <v>1813.374751416896</v>
       </c>
       <c r="Y5" t="n">
-        <v>690.2960192580879</v>
+        <v>1405.08862771655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>726.6741060804052</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>726.6741060804052</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>634.6599505886118</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>726.6741060804052</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>726.6741060804052</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>726.6741060804052</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1659.533602729681</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>1221.391129913105</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>1189.521749127953</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>1159.787408326653</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>731.9199787358604</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>330.5221473591242</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>41.3919928023405</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>40.9752034294805</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823984</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>983.2980333222196</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>983.2980333222196</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>983.2980333222196</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>983.2980333222196</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>983.2980333222196</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1372.537964281147</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1879.606106720968</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1965.108297657862</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1965.108297657862</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1965.108297657862</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1965.108297657862</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.293247109299</v>
+        <v>2235.159787501254</v>
       </c>
       <c r="X8" t="n">
-        <v>1949.191187729014</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y8" t="n">
-        <v>1944.945468069071</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207732</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574156</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039688</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309225</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470841</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.71085561326802</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.9752034294805</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.0388765899381</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561504</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959716</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374128</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213156</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005364</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>366.0560241157542</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>193.4943125989791</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>193.4943125989791</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>193.4943125989791</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>193.4943125989791</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.4943125989791</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>129.6351526548052</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>40.9752034294805</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.9752034294805</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>40.9752034294805</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>459.1850851974415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>918.6689523783547</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1360.927755535999</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1780.597004761781</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.760171474025</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474025</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2027.342350179397</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1868.100981477393</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1868.100981477393</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1589.667980730499</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1302.712472600929</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1030.686068187221</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>785.2943135206331</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>557.8746428347413</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1730.566173454288</v>
+        <v>2210.036257710529</v>
       </c>
       <c r="C11" t="n">
-        <v>1730.566173454288</v>
+        <v>1771.893784893952</v>
       </c>
       <c r="D11" t="n">
-        <v>1294.656388628732</v>
+        <v>1335.984000068396</v>
       </c>
       <c r="E11" t="n">
-        <v>902.2092552266913</v>
+        <v>902.2092552266915</v>
       </c>
       <c r="F11" t="n">
-        <v>474.3418256358991</v>
+        <v>474.3418256358992</v>
       </c>
       <c r="G11" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="H11" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="J11" t="n">
-        <v>366.204766497782</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="K11" t="n">
-        <v>1200.55505845596</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="L11" t="n">
-        <v>1200.55505845596</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="M11" t="n">
-        <v>1200.55505845596</v>
+        <v>467.0271942518771</v>
       </c>
       <c r="N11" t="n">
-        <v>1200.55505845596</v>
+        <v>1369.70912320902</v>
       </c>
       <c r="O11" t="n">
-        <v>2103.236987413102</v>
+        <v>2272.391052166164</v>
       </c>
       <c r="P11" t="n">
-        <v>2931.546862246498</v>
+        <v>3100.70092699956</v>
       </c>
       <c r="Q11" t="n">
-        <v>3478.045648205093</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.19971295815</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="S11" t="n">
-        <v>3563.547839141987</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="T11" t="n">
-        <v>3343.480612015025</v>
+        <v>3647.199712958155</v>
       </c>
       <c r="U11" t="n">
-        <v>3343.480612015025</v>
+        <v>3387.977410275172</v>
       </c>
       <c r="V11" t="n">
-        <v>2980.863661948852</v>
+        <v>3387.977410275172</v>
       </c>
       <c r="W11" t="n">
-        <v>2576.008207359885</v>
+        <v>2983.121955686205</v>
       </c>
       <c r="X11" t="n">
-        <v>2156.865743939196</v>
+        <v>2983.121955686205</v>
       </c>
       <c r="Y11" t="n">
-        <v>2156.865743939196</v>
+        <v>2636.335828195437</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>579.1157392504558</v>
+        <v>579.1157392504559</v>
       </c>
       <c r="C12" t="n">
-        <v>472.6592780870981</v>
+        <v>472.6592780870982</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336513</v>
+        <v>377.5689892336515</v>
       </c>
       <c r="E12" t="n">
-        <v>283.448574560605</v>
+        <v>283.4485745606052</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767666</v>
+        <v>200.0647361767668</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429505</v>
+        <v>114.6796464429506</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962059</v>
+        <v>99.0076674196207</v>
       </c>
       <c r="J12" t="n">
-        <v>423.5659923858329</v>
+        <v>423.5659923858331</v>
       </c>
       <c r="K12" t="n">
         <v>1078.272039011557</v>
@@ -5160,10 +5160,10 @@
         <v>981.7728553121183</v>
       </c>
       <c r="X12" t="n">
-        <v>826.9054195509982</v>
+        <v>826.9054195509983</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.419640330219</v>
+        <v>700.4196403302191</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.6792003787785</v>
+        <v>923.4400313360942</v>
       </c>
       <c r="C13" t="n">
-        <v>769.1174888620035</v>
+        <v>750.8783198193191</v>
       </c>
       <c r="D13" t="n">
-        <v>603.2394960635263</v>
+        <v>585.000327020842</v>
       </c>
       <c r="E13" t="n">
-        <v>433.4814923142635</v>
+        <v>415.2423232715792</v>
       </c>
       <c r="F13" t="n">
-        <v>256.7744382760197</v>
+        <v>238.5352692333354</v>
       </c>
       <c r="G13" t="n">
-        <v>91.18316330184734</v>
+        <v>72.94399425916299</v>
       </c>
       <c r="H13" t="n">
-        <v>91.18316330184734</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916299</v>
+        <v>72.94399425916311</v>
       </c>
       <c r="J13" t="n">
-        <v>159.5236794238529</v>
+        <v>159.523679423853</v>
       </c>
       <c r="K13" t="n">
-        <v>434.2821339949884</v>
+        <v>434.2821339949885</v>
       </c>
       <c r="L13" t="n">
-        <v>852.4920157629494</v>
+        <v>852.4920157629496</v>
       </c>
       <c r="M13" t="n">
-        <v>1311.975882943862</v>
+        <v>1311.975882943863</v>
       </c>
       <c r="N13" t="n">
         <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.903935327288</v>
+        <v>2173.903935327289</v>
       </c>
       <c r="P13" t="n">
-        <v>2521.41082929763</v>
+        <v>2521.410829297631</v>
       </c>
       <c r="Q13" t="n">
         <v>2689.603604161963</v>
@@ -5224,25 +5224,25 @@
         <v>2689.603604161963</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.603604161963</v>
+        <v>2671.364435119278</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.724157740418</v>
+        <v>2425.484988697734</v>
       </c>
       <c r="U13" t="n">
-        <v>2165.291156993523</v>
+        <v>2147.051987950839</v>
       </c>
       <c r="V13" t="n">
-        <v>1878.335648863954</v>
+        <v>1860.096479821269</v>
       </c>
       <c r="W13" t="n">
-        <v>1606.309244450245</v>
+        <v>1588.070075407561</v>
       </c>
       <c r="X13" t="n">
-        <v>1360.917489783657</v>
+        <v>1342.678320740973</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.497819097766</v>
+        <v>1115.258650055081</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5282,46 +5282,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883918</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731394</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5569696238766</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F16" t="n">
-        <v>126.8499155856329</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
         <v>102.2608402707796</v>
@@ -5470,13 +5470,13 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
         <v>1003.573296407379</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004241</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5558,7 +5558,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883922</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716172</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731398</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238771</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856333</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5783,19 +5783,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545776</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804052</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="23">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731399</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856333</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6224,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2674.705462642043</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2428.826016220498</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2150.393015473604</v>
       </c>
       <c r="V31" t="n">
-        <v>2035.366634303136</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1591.411102930326</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>228.524776110223</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1303.584742363082</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2460.632577573633</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3586.36356101008</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6838,16 +6838,16 @@
         <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7148,73 +7148,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>540.3167323207282</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1615.376698573588</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2772.424533784138</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>3898.155517220585</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>4878.335183790891</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790891</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790891</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936682</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080671</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716805</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463128</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850167</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882674</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7357,25 +7357,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7394,49 +7394,49 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>540.3167323207291</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.192791675538</v>
+        <v>1615.376698573589</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.192791675538</v>
+        <v>2772.424533784139</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>3898.155517220586</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7454,7 +7454,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1598.023390225393</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R42" t="n">
         <v>1760.806465154627</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936663</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080649</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716784</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463107</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7600,19 +7600,19 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231235</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7640,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,28 +7652,28 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675538</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1598.023390225393</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7825,16 +7825,16 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>655.0617495060586</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>121.1234907850348</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060587</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060587</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.257489509823927</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8140,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>369.8475292559658</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>120.5810333588715</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685062</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>393.1716474332601</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685062</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685062</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920777</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685062</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679235</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>296.2230022612313</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>398.0638383764788</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395374</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>127.5393291307509</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564752</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>447.2222511564761</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133671</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133671</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>40.9143353252673</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>60.88499624748215</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>69.71657238081418</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.151023720780131e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627254</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>135.0797604404446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>81.78272691405274</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>801942.2002224971</v>
+        <v>811408.5434473658</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>801942.2002224971</v>
+        <v>811919.401868631</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>805547.7440002961</v>
+        <v>811919.401868631</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>642003.0143622244</v>
+        <v>642003.014362225</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>817698.9897180011</v>
+        <v>817698.989718001</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>817698.989718001</v>
+        <v>817698.9897180009</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>817698.9897180011</v>
+        <v>817698.989718001</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160844.1959671225</v>
+        <v>160844.1959671224</v>
       </c>
       <c r="C2" t="n">
         <v>160844.1959671225</v>
@@ -26320,16 +26320,16 @@
         <v>160844.1959671225</v>
       </c>
       <c r="E2" t="n">
-        <v>124096.089664644</v>
+        <v>124096.0896646441</v>
       </c>
       <c r="F2" t="n">
-        <v>158057.2752412057</v>
+        <v>158057.2752412056</v>
       </c>
       <c r="G2" t="n">
-        <v>158057.2752412057</v>
+        <v>158057.2752412056</v>
       </c>
       <c r="H2" t="n">
-        <v>158057.2752412057</v>
+        <v>158057.2752412056</v>
       </c>
       <c r="I2" t="n">
         <v>158057.2752412056</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797189</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928949524</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477407</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543118</v>
+        <v>72938.0436153443</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540558</v>
+        <v>105000.4827540555</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877632</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375605</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401238</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400246</v>
+        <v>60876.72976950163</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716063</v>
+        <v>88373.14763716035</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>150349.4599672943</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="D4" t="n">
-        <v>177186.5770166561</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>42838.32636452527</v>
+        <v>42838.32636452531</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26445,19 +26445,19 @@
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>68372.72551926991</v>
+        <v>68372.72551926989</v>
       </c>
       <c r="O4" t="n">
-        <v>68372.72551926991</v>
+        <v>68372.72551926989</v>
       </c>
       <c r="P4" t="n">
-        <v>68372.72551926989</v>
+        <v>68372.72551926988</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996837</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640517</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696387</v>
+        <v>55437.43563696396</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234468.5724809742</v>
+        <v>-282486.8770498591</v>
       </c>
       <c r="C6" t="n">
-        <v>-92277.27182126426</v>
+        <v>-65401.86976937389</v>
       </c>
       <c r="D6" t="n">
-        <v>-108413.7064507128</v>
+        <v>-61378.52284042437</v>
       </c>
       <c r="E6" t="n">
-        <v>-93494.39269115693</v>
+        <v>-47423.9501713768</v>
       </c>
       <c r="F6" t="n">
-        <v>-79223.27122826545</v>
+        <v>-79246.49556764774</v>
       </c>
       <c r="G6" t="n">
-        <v>25777.21152579042</v>
+        <v>25753.9871864077</v>
       </c>
       <c r="H6" t="n">
-        <v>25777.21152579042</v>
+        <v>25753.98718640772</v>
       </c>
       <c r="I6" t="n">
-        <v>25777.21152579036</v>
+        <v>25753.9871864077</v>
       </c>
       <c r="J6" t="n">
-        <v>-85237.25381919983</v>
+        <v>-145638.9892013555</v>
       </c>
       <c r="K6" t="n">
-        <v>25777.21152579036</v>
+        <v>22548.8658390321</v>
       </c>
       <c r="L6" t="n">
-        <v>3531.984261778009</v>
+        <v>25753.9871864077</v>
       </c>
       <c r="M6" t="n">
-        <v>-73807.17034821209</v>
+        <v>-35122.74258309394</v>
       </c>
       <c r="N6" t="n">
-        <v>-71417.29191539773</v>
+        <v>-71417.29191539742</v>
       </c>
       <c r="O6" t="n">
         <v>16955.8557217629</v>
       </c>
       <c r="P6" t="n">
-        <v>16955.85572176304</v>
+        <v>16955.85572176303</v>
       </c>
     </row>
   </sheetData>
@@ -26719,10 +26719,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874737</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060587</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685062</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.7999282395374</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060587</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179822</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840186</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710312</v>
+        <v>244.2847216316818</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452079</v>
+        <v>366.4605751452066</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060587</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179822</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840186</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710312</v>
+        <v>244.2847216316818</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081854</v>
+        <v>307.7838677081843</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060587</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179822</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840186</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710312</v>
+        <v>244.2847216316818</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452079</v>
+        <v>366.4605751452066</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>271.0398895526697</v>
-      </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>59.51894348689439</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>32.62932595095157</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>104.2076976742665</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.9978568631582</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,13 +27622,13 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>185.5052794208651</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>73.12519893361704</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>139.4788280940626</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>53.07022658020588</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>75.28258422179704</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874765</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874765</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>655.0617495060586</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>121.1234907850348</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060587</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060587</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.257489509823927</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>369.8475292559658</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>120.5810333588715</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>512.1900428685062</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>393.1716474332601</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685062</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685062</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920777</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685062</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679235</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>296.2230022612313</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>398.0638383764788</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395374</v>
+        <v>911.7999282395388</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>127.5393291307509</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>-2.51639122069711e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564752</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209006</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>447.2222511564761</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133671</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763885</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133671</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
